--- a/研发文档/项目进度.xlsx
+++ b/研发文档/项目进度.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24820" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="FeatureList" sheetId="1" r:id="rId1"/>
-    <sheet name="Legend" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>Feature Name</t>
   </si>
@@ -192,21 +191,6 @@
     <t>数据统计模块</t>
   </si>
   <si>
-    <t>基础功能</t>
-  </si>
-  <si>
-    <t>附加功能</t>
-  </si>
-  <si>
-    <t>条件功能</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>推广功能</t>
-  </si>
-  <si>
     <t>精灵模型</t>
   </si>
   <si>
@@ -245,18 +229,6 @@
   </si>
   <si>
     <t>食物的数据模型文件</t>
-  </si>
-  <si>
-    <t>本期必须实现的强制性功能需求</t>
-  </si>
-  <si>
-    <t>性价比不错的需求有时间就尽可能做没时间考虑下期做</t>
-  </si>
-  <si>
-    <t>本期由于条件限制不做，在后续的项目排期中酌情实现</t>
-  </si>
-  <si>
-    <t>为了推广考虑的功能，需要考虑投入产出</t>
   </si>
   <si>
     <t>1.管理 2.背包 3.战斗
@@ -276,21 +248,8 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3366FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -312,37 +271,55 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3366FF"/>
+      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="宋体"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="黑体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -354,56 +331,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -411,6 +393,9 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -418,6 +403,9 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -750,7 +738,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -765,428 +753,453 @@
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="13"/>
-      <c r="B3" s="12">
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="13" t="s">
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1">
+      <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="A7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1">
+      <c r="A11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1">
+      <c r="A14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1">
+      <c r="A16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1">
+      <c r="A20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1">
+      <c r="A24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="9">
+        <v>24</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="E25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30">
-      <c r="A7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="12">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="12">
-        <v>10</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12">
-        <v>12</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="12">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12">
-        <v>14</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="12">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12">
-        <v>16</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12">
-        <v>17</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12">
-        <v>18</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="12">
-        <v>19</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="13"/>
-      <c r="B21" s="12">
-        <v>20</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="13"/>
-      <c r="B22" s="12">
-        <v>21</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="13"/>
-      <c r="B23" s="12">
-        <v>22</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="12">
-        <v>23</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="13"/>
-      <c r="B25" s="8">
-        <v>24</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="13"/>
-      <c r="B26" s="12">
-        <v>25</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="E26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1207,82 +1220,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="55.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>